--- a/data/seastar_daily_obs_FHW_2023.xlsx
+++ b/data/seastar_daily_obs_FHW_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graciecrandall/Documents/GitHub/project-pycno-FHW-2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F88313DA-6957-0D49-948D-41C94D61B2F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA371BA7-83C6-DC4D-B3A9-49B278475594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16580" xr2:uid="{20BF1231-E01F-7644-848C-91924BFC8A83}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>initials</t>
   </si>
@@ -42,9 +42,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>feed</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>treatment</t>
+  </si>
+  <si>
+    <t>feed_number</t>
+  </si>
+  <si>
+    <t>food_type</t>
   </si>
 </sst>
 </file>
@@ -433,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBE64B9-87F9-E942-B337-B75C2794C7E6}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,46 +455,49 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
